--- a/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
+++ b/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-14T14:19:42+00:00</t>
+    <t>2021-11-25T00:25:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
+++ b/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T16:36:32+00:00</t>
+    <t>2021-12-06T10:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
+++ b/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T10:19:03+00:00</t>
+    <t>2021-12-06T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
+++ b/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T10:42:28+00:00</t>
+    <t>2021-12-06T20:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
+++ b/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T20:57:44+00:00</t>
+    <t>2021-12-07T17:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
+++ b/StructureDefinition-analgesic-antipyretic-intake-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T17:21:29+00:00</t>
+    <t>2021-12-10T11:47:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
